--- a/Logistics/AIL_75_JPB_Fall.xlsx
+++ b/Logistics/AIL_75_JPB_Fall.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>Team Members:</t>
   </si>
@@ -151,6 +151,27 @@
   </si>
   <si>
     <t>Get Projector</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>"Casey is bad at script writing" - Casey</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Waiting on profs</t>
+  </si>
+  <si>
+    <t>Late</t>
+  </si>
+  <si>
+    <t>On Hold</t>
+  </si>
+  <si>
+    <t>Waiting for Prezi and Script</t>
   </si>
 </sst>
 </file>
@@ -703,35 +724,6 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <numFmt numFmtId="0" formatCode="yyyy\-mm\-dd;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -806,6 +798,35 @@
       </fill>
       <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -820,20 +841,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A13:H77" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A13:H77" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A13:H77"/>
   <sortState ref="A14:H77">
     <sortCondition ref="D13:D77"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="#" dataDxfId="9"/>
-    <tableColumn id="3" name="Activity" dataDxfId="8"/>
-    <tableColumn id="4" name="Person(s)" dataDxfId="7"/>
-    <tableColumn id="5" name="Date Assigned" dataDxfId="6"/>
-    <tableColumn id="6" name="Date Due" dataDxfId="5"/>
-    <tableColumn id="7" name="New Due" dataDxfId="4"/>
-    <tableColumn id="8" name="Status" dataDxfId="3"/>
-    <tableColumn id="9" name="Comments" dataDxfId="2"/>
+    <tableColumn id="1" name="#" dataDxfId="7"/>
+    <tableColumn id="3" name="Activity" dataDxfId="6"/>
+    <tableColumn id="4" name="Person(s)" dataDxfId="5"/>
+    <tableColumn id="5" name="Date Assigned" dataDxfId="4"/>
+    <tableColumn id="6" name="Date Due" dataDxfId="3"/>
+    <tableColumn id="7" name="New Due" dataDxfId="2"/>
+    <tableColumn id="8" name="Status" dataDxfId="1"/>
+    <tableColumn id="9" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1128,8 +1149,8 @@
   </sheetPr>
   <dimension ref="A1:KS78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1864,7 +1885,9 @@
         <v>41879</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
@@ -2180,9 +2203,15 @@
       <c r="E15" s="9">
         <v>41879</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="21"/>
+      <c r="F15" s="9">
+        <v>41880</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:305" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
@@ -2201,7 +2230,9 @@
         <v>41884</v>
       </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
@@ -2537,8 +2568,12 @@
       <c r="E18" s="9">
         <v>41879</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
+      <c r="F18" s="9">
+        <v>41885</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
@@ -3212,7 +3247,9 @@
         <v>41879</v>
       </c>
       <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
@@ -3529,8 +3566,12 @@
         <v>41878</v>
       </c>
       <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="21"/>
+      <c r="G23" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" spans="1:305" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
@@ -3549,8 +3590,12 @@
         <v>41878</v>
       </c>
       <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="21"/>
+      <c r="G24" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>50</v>
+      </c>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
@@ -3866,7 +3911,9 @@
         <v>41878</v>
       </c>
       <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
+      <c r="G25" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:305" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -4215,8 +4262,12 @@
         <v>41879</v>
       </c>
       <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="25"/>
+      <c r="G28" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="29" spans="1:305" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21">

--- a/Logistics/AIL_75_JPB_Fall.xlsx
+++ b/Logistics/AIL_75_JPB_Fall.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="79">
   <si>
     <t>Team Members:</t>
   </si>
@@ -1230,8 +1230,8 @@
   </sheetPr>
   <dimension ref="A1:KS86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3907,7 +3907,7 @@
         <v>41886</v>
       </c>
       <c r="F34" s="9">
-        <v>41891</v>
+        <v>41893</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="20"/>
@@ -4579,7 +4579,9 @@
         <v>41891</v>
       </c>
       <c r="F38" s="9"/>
-      <c r="G38" s="10"/>
+      <c r="G38" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
@@ -4896,7 +4898,9 @@
         <v>41893</v>
       </c>
       <c r="F39" s="9"/>
-      <c r="G39" s="10"/>
+      <c r="G39" s="13">
+        <v>0.5</v>
+      </c>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>

--- a/Logistics/AIL_75_JPB_Fall.xlsx
+++ b/Logistics/AIL_75_JPB_Fall.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="81">
   <si>
     <t>Team Members:</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>DMO, CWS, CWB</t>
+  </si>
+  <si>
+    <t>In Work</t>
+  </si>
+  <si>
+    <t>14 hours to render</t>
   </si>
 </sst>
 </file>
@@ -1230,8 +1236,8 @@
   </sheetPr>
   <dimension ref="A1:KS86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3907,7 +3913,7 @@
         <v>41886</v>
       </c>
       <c r="F34" s="9">
-        <v>41893</v>
+        <v>41900</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="20"/>
@@ -5217,7 +5223,9 @@
         <v>41893</v>
       </c>
       <c r="F40" s="9"/>
-      <c r="G40" s="13"/>
+      <c r="G40" s="13">
+        <v>0.5</v>
+      </c>
       <c r="H40" s="20"/>
     </row>
     <row r="41" spans="1:305" x14ac:dyDescent="0.2">
@@ -5237,8 +5245,12 @@
         <v>41893</v>
       </c>
       <c r="F41" s="9"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="20"/>
+      <c r="G41" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="42" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A42" s="20">

--- a/Logistics/AIL_75_JPB_Fall.xlsx
+++ b/Logistics/AIL_75_JPB_Fall.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
   <si>
     <t>Team Members:</t>
   </si>
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t>DMO, CWS, CWB</t>
-  </si>
-  <si>
-    <t>In Work</t>
   </si>
   <si>
     <t>14 hours to render</t>
@@ -1236,8 +1233,8 @@
   </sheetPr>
   <dimension ref="A1:KS86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5246,10 +5243,10 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="20" t="s">
         <v>79</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:305" x14ac:dyDescent="0.2">

--- a/Logistics/AIL_75_JPB_Fall.xlsx
+++ b/Logistics/AIL_75_JPB_Fall.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
   <si>
     <t>Team Members:</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>14 hours to render</t>
+  </si>
+  <si>
+    <t>Waiting for NEMA motors</t>
+  </si>
+  <si>
+    <t>Waiting for #34</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1239,7 @@
   </sheetPr>
   <dimension ref="A1:KS86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
@@ -2727,7 +2733,9 @@
       <c r="F21" s="9">
         <v>41893</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G21" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:305" x14ac:dyDescent="0.2">
@@ -4901,8 +4909,8 @@
         <v>41893</v>
       </c>
       <c r="F39" s="9"/>
-      <c r="G39" s="13">
-        <v>0.5</v>
+      <c r="G39" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
@@ -5219,7 +5227,9 @@
       <c r="E40" s="9">
         <v>41893</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="9">
+        <v>41900</v>
+      </c>
       <c r="G40" s="13">
         <v>0.5</v>
       </c>
@@ -5265,7 +5275,9 @@
       <c r="E42" s="9">
         <v>41893</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="9">
+        <v>41905</v>
+      </c>
       <c r="G42" s="13"/>
       <c r="H42" s="20"/>
     </row>
@@ -5285,7 +5297,9 @@
       <c r="E43" s="9">
         <v>41893</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="9">
+        <v>41905</v>
+      </c>
       <c r="G43" s="13"/>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
@@ -5602,7 +5616,9 @@
       <c r="E44" s="9">
         <v>41893</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="9">
+        <v>41905</v>
+      </c>
       <c r="G44" s="13"/>
       <c r="H44" s="20"/>
     </row>
@@ -5622,7 +5638,9 @@
       <c r="E45" s="9">
         <v>41891</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="9">
+        <v>41905</v>
+      </c>
       <c r="G45" s="13"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
@@ -5939,8 +5957,12 @@
       <c r="E46" s="9">
         <v>41891</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="10"/>
+      <c r="F46" s="9">
+        <v>41900</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="H46" s="20"/>
     </row>
     <row r="47" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -5959,9 +5981,13 @@
       <c r="E47" s="9">
         <v>41900</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="9">
+        <v>41907</v>
+      </c>
       <c r="G47" s="10"/>
-      <c r="H47" s="20"/>
+      <c r="H47" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
@@ -6276,9 +6302,13 @@
       <c r="E48" s="9">
         <v>41900</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="9">
+        <v>41907</v>
+      </c>
       <c r="G48" s="10"/>
-      <c r="H48" s="20"/>
+      <c r="H48" s="20" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="49" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20">
@@ -6296,7 +6326,9 @@
       <c r="E49" s="9">
         <v>41893</v>
       </c>
-      <c r="F49" s="9"/>
+      <c r="F49" s="9">
+        <v>41900</v>
+      </c>
       <c r="G49" s="13"/>
       <c r="H49" s="20"/>
       <c r="I49" s="20"/>
@@ -6613,8 +6645,12 @@
       <c r="E50" s="9">
         <v>41893</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="13"/>
+      <c r="F50" s="9">
+        <v>41905</v>
+      </c>
+      <c r="G50" s="13">
+        <v>0.25</v>
+      </c>
       <c r="H50" s="20"/>
     </row>
     <row r="51" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">

--- a/Logistics/AIL_75_JPB_Fall.xlsx
+++ b/Logistics/AIL_75_JPB_Fall.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="123820"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\SeniorDesign\Logistics\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Activities " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
   <si>
     <t>Team Members:</t>
   </si>
@@ -144,9 +139,6 @@
     <t>"Casey is bad at script writing" - Casey</t>
   </si>
   <si>
-    <t>Late</t>
-  </si>
-  <si>
     <t>On Hold</t>
   </si>
   <si>
@@ -265,17 +257,23 @@
   </si>
   <si>
     <t>Waiting for #34</t>
+  </si>
+  <si>
+    <t>grbl h-bridge support</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -820,7 +818,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -829,7 +827,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
@@ -839,7 +837,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
@@ -849,7 +847,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
@@ -859,7 +857,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -868,7 +866,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -877,7 +875,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -886,7 +884,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
@@ -896,7 +894,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -915,7 +913,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -993,7 +991,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1025,10 +1023,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1060,7 +1057,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1233,17 +1229,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:KS86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="19" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" style="19" bestFit="1" customWidth="1"/>
@@ -1258,7 +1254,7 @@
     <col min="306" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:305" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:305" s="16" customFormat="1" ht="18">
       <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
@@ -1567,19 +1563,19 @@
       <c r="KR1" s="17"/>
       <c r="KS1" s="17"/>
     </row>
-    <row r="3" spans="1:305" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:305" ht="18">
       <c r="A3" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:305">
       <c r="A5" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="21"/>
     </row>
-    <row r="6" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:305">
       <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
@@ -1587,7 +1583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:305">
       <c r="B7" s="19" t="s">
         <v>8</v>
       </c>
@@ -1597,7 +1593,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:305">
       <c r="B8" s="19" t="s">
         <v>17</v>
       </c>
@@ -1607,7 +1603,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:305">
       <c r="B9" s="19" t="s">
         <v>15</v>
       </c>
@@ -1617,7 +1613,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:305">
       <c r="B10" s="19" t="s">
         <v>22</v>
       </c>
@@ -1627,7 +1623,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:305">
       <c r="B11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1635,7 +1631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:305" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:305" s="21" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1958,12 +1954,12 @@
       <c r="KR13" s="22"/>
       <c r="KS13" s="22"/>
     </row>
-    <row r="14" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:305" s="23" customFormat="1">
       <c r="A14" s="20">
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>15</v>
@@ -2277,12 +2273,12 @@
       <c r="KR14" s="20"/>
       <c r="KS14" s="20"/>
     </row>
-    <row r="15" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:305" s="23" customFormat="1">
       <c r="A15" s="20">
         <v>2</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>17</v>
@@ -2600,7 +2596,7 @@
       <c r="KR15" s="20"/>
       <c r="KS15" s="20"/>
     </row>
-    <row r="16" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:305">
       <c r="A16" s="20">
         <v>3</v>
       </c>
@@ -2622,7 +2618,7 @@
       </c>
       <c r="H16" s="20"/>
     </row>
-    <row r="17" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:305">
       <c r="A17" s="20">
         <v>4</v>
       </c>
@@ -2640,13 +2636,13 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:305" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:305">
       <c r="A18" s="20">
         <v>5</v>
       </c>
@@ -2654,7 +2650,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="9">
         <v>41877</v>
@@ -2668,7 +2664,7 @@
       </c>
       <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:305">
       <c r="A19" s="20">
         <v>6</v>
       </c>
@@ -2686,13 +2682,13 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:305" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:305">
       <c r="A20" s="20">
         <v>7</v>
       </c>
@@ -2714,7 +2710,7 @@
       </c>
       <c r="H20" s="20"/>
     </row>
-    <row r="21" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:305">
       <c r="A21" s="20">
         <v>8</v>
       </c>
@@ -2738,7 +2734,7 @@
       </c>
       <c r="H21" s="24"/>
     </row>
-    <row r="22" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:305">
       <c r="A22" s="20">
         <v>9</v>
       </c>
@@ -2760,7 +2756,7 @@
       </c>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:305">
       <c r="A23" s="20">
         <v>10</v>
       </c>
@@ -2780,11 +2776,9 @@
       <c r="G23" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:305" x14ac:dyDescent="0.2">
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:305">
       <c r="A24" s="20">
         <v>11</v>
       </c>
@@ -2802,13 +2796,13 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:305" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:305">
       <c r="A25" s="20">
         <v>12</v>
       </c>
@@ -2830,7 +2824,7 @@
       </c>
       <c r="H25" s="20"/>
     </row>
-    <row r="26" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:305">
       <c r="A26" s="20">
         <v>13</v>
       </c>
@@ -2852,7 +2846,7 @@
       </c>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:305">
       <c r="A27" s="20">
         <v>14</v>
       </c>
@@ -2870,13 +2864,13 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:305" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:305">
       <c r="A28" s="20">
         <v>15</v>
       </c>
@@ -2898,12 +2892,12 @@
       </c>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:305" s="23" customFormat="1">
       <c r="A29" s="20">
         <v>16</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>15</v>
@@ -3217,12 +3211,12 @@
       <c r="KR29" s="20"/>
       <c r="KS29" s="20"/>
     </row>
-    <row r="30" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:305" s="23" customFormat="1">
       <c r="A30" s="20">
         <v>17</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>17</v>
@@ -3536,15 +3530,15 @@
       <c r="KR30" s="20"/>
       <c r="KS30" s="20"/>
     </row>
-    <row r="31" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:305">
       <c r="A31" s="20">
         <v>18</v>
       </c>
       <c r="B31" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>65</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>66</v>
       </c>
       <c r="D31" s="9">
         <v>41884</v>
@@ -3558,15 +3552,15 @@
       </c>
       <c r="H31" s="20"/>
     </row>
-    <row r="32" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:305" s="23" customFormat="1">
       <c r="A32" s="20">
         <v>19</v>
       </c>
       <c r="B32" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>47</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>48</v>
       </c>
       <c r="D32" s="9">
         <v>41884</v>
@@ -3877,12 +3871,12 @@
       <c r="KR32" s="20"/>
       <c r="KS32" s="20"/>
     </row>
-    <row r="33" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:305">
       <c r="A33" s="20">
         <v>20</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>15</v>
@@ -3895,18 +3889,18 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="H33" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:305" s="23" customFormat="1">
       <c r="A34" s="20">
         <v>21</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>15</v>
@@ -4220,7 +4214,7 @@
       <c r="KR34" s="20"/>
       <c r="KS34" s="20"/>
     </row>
-    <row r="35" spans="1:305" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:305" hidden="1">
       <c r="A35" s="20">
         <v>22</v>
       </c>
@@ -4232,12 +4226,12 @@
       <c r="G35" s="10"/>
       <c r="H35" s="20"/>
     </row>
-    <row r="36" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:305">
       <c r="A36" s="20">
         <v>23</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>15</v>
@@ -4254,12 +4248,12 @@
       </c>
       <c r="H36" s="20"/>
     </row>
-    <row r="37" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:305" s="23" customFormat="1">
       <c r="A37" s="20">
         <v>24</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>15</v>
@@ -4573,12 +4567,12 @@
       <c r="KR37" s="20"/>
       <c r="KS37" s="20"/>
     </row>
-    <row r="38" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:305" s="23" customFormat="1">
       <c r="A38" s="20">
         <v>25</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>16</v>
@@ -4892,15 +4886,15 @@
       <c r="KR38" s="20"/>
       <c r="KS38" s="20"/>
     </row>
-    <row r="39" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:305" s="23" customFormat="1">
       <c r="A39" s="20">
         <v>26</v>
       </c>
       <c r="B39" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="20" t="s">
         <v>51</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>52</v>
       </c>
       <c r="D39" s="9">
         <v>41886</v>
@@ -5211,12 +5205,12 @@
       <c r="KR39" s="20"/>
       <c r="KS39" s="20"/>
     </row>
-    <row r="40" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:305">
       <c r="A40" s="20">
         <v>27</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>17</v>
@@ -5235,12 +5229,12 @@
       </c>
       <c r="H40" s="20"/>
     </row>
-    <row r="41" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:305">
       <c r="A41" s="20">
         <v>28</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>15</v>
@@ -5256,15 +5250,15 @@
         <v>39</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:305" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:305">
       <c r="A42" s="20">
         <v>29</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>17</v>
@@ -5281,12 +5275,12 @@
       <c r="G42" s="13"/>
       <c r="H42" s="20"/>
     </row>
-    <row r="43" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:305" s="23" customFormat="1">
       <c r="A43" s="20">
         <v>30</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>8</v>
@@ -5600,15 +5594,15 @@
       <c r="KR43" s="20"/>
       <c r="KS43" s="20"/>
     </row>
-    <row r="44" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:305">
       <c r="A44" s="20">
         <v>31</v>
       </c>
       <c r="B44" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="20" t="s">
         <v>70</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>71</v>
       </c>
       <c r="D44" s="9">
         <v>41891</v>
@@ -5622,15 +5616,15 @@
       <c r="G44" s="13"/>
       <c r="H44" s="20"/>
     </row>
-    <row r="45" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:305" s="23" customFormat="1">
       <c r="A45" s="20">
         <v>32</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D45" s="9">
         <v>41891</v>
@@ -5941,12 +5935,12 @@
       <c r="KR45" s="20"/>
       <c r="KS45" s="20"/>
     </row>
-    <row r="46" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:305">
       <c r="A46" s="20">
         <v>33</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>8</v>
@@ -5965,12 +5959,12 @@
       </c>
       <c r="H46" s="20"/>
     </row>
-    <row r="47" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:305" s="23" customFormat="1">
       <c r="A47" s="20">
         <v>34</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>16</v>
@@ -5986,7 +5980,7 @@
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
@@ -6286,15 +6280,15 @@
       <c r="KR47" s="20"/>
       <c r="KS47" s="20"/>
     </row>
-    <row r="48" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:305">
       <c r="A48" s="20">
         <v>35</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D48" s="9">
         <v>41893</v>
@@ -6307,15 +6301,15 @@
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:305" s="23" customFormat="1">
       <c r="A49" s="20">
         <v>36</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>17</v>
@@ -6629,15 +6623,15 @@
       <c r="KR49" s="20"/>
       <c r="KS49" s="20"/>
     </row>
-    <row r="50" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:305">
       <c r="A50" s="20">
         <v>37</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D50" s="9">
         <v>41893</v>
@@ -6653,16 +6647,26 @@
       </c>
       <c r="H50" s="20"/>
     </row>
-    <row r="51" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:305" s="23" customFormat="1">
       <c r="A51" s="20">
         <v>38</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
+      <c r="B51" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="9">
+        <v>41907</v>
+      </c>
+      <c r="E51" s="9">
+        <v>41928</v>
+      </c>
       <c r="F51" s="9"/>
-      <c r="G51" s="10"/>
+      <c r="G51" s="10" t="s">
+        <v>82</v>
+      </c>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
@@ -6962,7 +6966,7 @@
       <c r="KR51" s="20"/>
       <c r="KS51" s="20"/>
     </row>
-    <row r="52" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:305">
       <c r="A52" s="20">
         <v>39</v>
       </c>
@@ -6974,7 +6978,7 @@
       <c r="G52" s="10"/>
       <c r="H52" s="20"/>
     </row>
-    <row r="53" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:305" s="23" customFormat="1">
       <c r="A53" s="20">
         <v>40</v>
       </c>
@@ -7283,7 +7287,7 @@
       <c r="KR53" s="20"/>
       <c r="KS53" s="20"/>
     </row>
-    <row r="54" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:305">
       <c r="A54" s="20">
         <v>41</v>
       </c>
@@ -7295,7 +7299,7 @@
       <c r="G54" s="10"/>
       <c r="H54" s="20"/>
     </row>
-    <row r="55" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:305" s="23" customFormat="1">
       <c r="A55" s="20">
         <v>42</v>
       </c>
@@ -7604,7 +7608,7 @@
       <c r="KR55" s="20"/>
       <c r="KS55" s="20"/>
     </row>
-    <row r="56" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:305">
       <c r="A56" s="20">
         <v>43</v>
       </c>
@@ -7616,7 +7620,7 @@
       <c r="G56" s="13"/>
       <c r="H56" s="20"/>
     </row>
-    <row r="57" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:305">
       <c r="A57" s="20">
         <v>44</v>
       </c>
@@ -7628,7 +7632,7 @@
       <c r="G57" s="10"/>
       <c r="H57" s="20"/>
     </row>
-    <row r="58" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:305">
       <c r="A58" s="20">
         <v>45</v>
       </c>
@@ -7640,7 +7644,7 @@
       <c r="G58" s="13"/>
       <c r="H58" s="20"/>
     </row>
-    <row r="59" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:305">
       <c r="A59" s="20">
         <v>46</v>
       </c>
@@ -7652,7 +7656,7 @@
       <c r="G59" s="10"/>
       <c r="H59" s="20"/>
     </row>
-    <row r="60" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:305">
       <c r="A60" s="20">
         <v>47</v>
       </c>
@@ -7664,7 +7668,7 @@
       <c r="G60" s="13"/>
       <c r="H60" s="20"/>
     </row>
-    <row r="61" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:305">
       <c r="A61" s="20">
         <v>48</v>
       </c>
@@ -7676,7 +7680,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="20"/>
     </row>
-    <row r="62" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:305">
       <c r="A62" s="20">
         <v>49</v>
       </c>
@@ -7688,7 +7692,7 @@
       <c r="G62" s="10"/>
       <c r="H62" s="20"/>
     </row>
-    <row r="63" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:305">
       <c r="A63" s="20">
         <v>50</v>
       </c>
@@ -7700,7 +7704,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="20"/>
     </row>
-    <row r="64" spans="1:305" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:305">
       <c r="A64" s="20">
         <v>51</v>
       </c>
@@ -7712,7 +7716,7 @@
       <c r="G64" s="10"/>
       <c r="H64" s="20"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" s="20">
         <v>52</v>
       </c>
@@ -7724,7 +7728,7 @@
       <c r="G65" s="13"/>
       <c r="H65" s="20"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" s="20">
         <v>53</v>
       </c>
@@ -7736,7 +7740,7 @@
       <c r="G66" s="13"/>
       <c r="H66" s="20"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" s="20">
         <v>54</v>
       </c>
@@ -7748,7 +7752,7 @@
       <c r="G67" s="13"/>
       <c r="H67" s="20"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" s="20">
         <v>55</v>
       </c>
@@ -7760,7 +7764,7 @@
       <c r="G68" s="13"/>
       <c r="H68" s="20"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="20">
         <v>56</v>
       </c>
@@ -7772,7 +7776,7 @@
       <c r="G69" s="13"/>
       <c r="H69" s="20"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" s="20">
         <v>57</v>
       </c>
@@ -7784,7 +7788,7 @@
       <c r="G70" s="13"/>
       <c r="H70" s="20"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" s="20">
         <v>58</v>
       </c>
@@ -7796,7 +7800,7 @@
       <c r="G71" s="10"/>
       <c r="H71" s="20"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" s="20">
         <v>59</v>
       </c>
@@ -7808,7 +7812,7 @@
       <c r="G72" s="10"/>
       <c r="H72" s="20"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" s="20">
         <v>60</v>
       </c>
@@ -7820,7 +7824,7 @@
       <c r="G73" s="10"/>
       <c r="H73" s="20"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" s="20">
         <v>61</v>
       </c>
@@ -7832,7 +7836,7 @@
       <c r="G74" s="10"/>
       <c r="H74" s="20"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75" s="20">
         <v>62</v>
       </c>
@@ -7844,7 +7848,7 @@
       <c r="G75" s="10"/>
       <c r="H75" s="20"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" s="20">
         <v>63</v>
       </c>
@@ -7856,7 +7860,7 @@
       <c r="G76" s="10"/>
       <c r="H76" s="20"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" s="20">
         <v>64</v>
       </c>
@@ -7868,7 +7872,7 @@
       <c r="G77" s="10"/>
       <c r="H77" s="20"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" s="20">
         <v>65</v>
       </c>
@@ -7880,7 +7884,7 @@
       <c r="G78" s="10"/>
       <c r="H78" s="20"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" s="20">
         <v>66</v>
       </c>
@@ -7892,7 +7896,7 @@
       <c r="G79" s="10"/>
       <c r="H79" s="20"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" s="20">
         <v>67</v>
       </c>
@@ -7904,7 +7908,7 @@
       <c r="G80" s="10"/>
       <c r="H80" s="20"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" s="20">
         <v>68</v>
       </c>
@@ -7916,7 +7920,7 @@
       <c r="G81" s="10"/>
       <c r="H81" s="20"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" s="20">
         <v>69</v>
       </c>
@@ -7928,7 +7932,7 @@
       <c r="G82" s="10"/>
       <c r="H82" s="20"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83" s="20">
         <v>70</v>
       </c>
@@ -7940,7 +7944,7 @@
       <c r="G83" s="10"/>
       <c r="H83" s="20"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8">
       <c r="A84" s="20">
         <v>71</v>
       </c>
@@ -7952,7 +7956,7 @@
       <c r="G84" s="10"/>
       <c r="H84" s="20"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85" s="20">
         <v>72</v>
       </c>
@@ -7964,7 +7968,7 @@
       <c r="G85" s="10"/>
       <c r="H85" s="20"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" s="20"/>
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>

--- a/Logistics/AIL_75_JPB_Fall.xlsx
+++ b/Logistics/AIL_75_JPB_Fall.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="123820"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\SeniorDesign\Logistics\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="89">
   <si>
     <t>Team Members:</t>
   </si>
@@ -253,27 +258,45 @@
     <t>14 hours to render</t>
   </si>
   <si>
-    <t>Waiting for NEMA motors</t>
-  </si>
-  <si>
     <t>Waiting for #34</t>
   </si>
   <si>
-    <t>grbl h-bridge support</t>
-  </si>
-  <si>
-    <t>In Progress</t>
+    <t>Grbl H-Bridge Support</t>
+  </si>
+  <si>
+    <t>Optimizing Prelim Linear Motion Sys</t>
+  </si>
+  <si>
+    <t>JPB, CWS</t>
+  </si>
+  <si>
+    <t>Launch Indiegogo</t>
+  </si>
+  <si>
+    <t>JPB, DMO</t>
+  </si>
+  <si>
+    <t>Lead Screw Nut</t>
+  </si>
+  <si>
+    <t>JPB, NAT</t>
+  </si>
+  <si>
+    <t>Coupler</t>
+  </si>
+  <si>
+    <t>NAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -818,7 +841,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -827,7 +850,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
@@ -837,7 +860,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
@@ -847,7 +870,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
@@ -857,7 +880,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -866,7 +889,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -875,7 +898,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -884,7 +907,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
@@ -894,7 +917,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -913,7 +936,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -991,7 +1014,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1023,9 +1046,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1057,6 +1081,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1229,17 +1254,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:KS86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="19" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" style="19" bestFit="1" customWidth="1"/>
@@ -1254,7 +1279,7 @@
     <col min="306" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:305" s="16" customFormat="1" ht="18">
+    <row r="1" spans="1:305" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
@@ -1563,19 +1588,19 @@
       <c r="KR1" s="17"/>
       <c r="KS1" s="17"/>
     </row>
-    <row r="3" spans="1:305" ht="18">
+    <row r="3" spans="1:305" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:305">
+    <row r="5" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="21"/>
     </row>
-    <row r="6" spans="1:305">
+    <row r="6" spans="1:305" x14ac:dyDescent="0.2">
       <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
@@ -1583,7 +1608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:305">
+    <row r="7" spans="1:305" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
         <v>8</v>
       </c>
@@ -1593,7 +1618,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:305">
+    <row r="8" spans="1:305" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
         <v>17</v>
       </c>
@@ -1603,7 +1628,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:305">
+    <row r="9" spans="1:305" x14ac:dyDescent="0.2">
       <c r="B9" s="19" t="s">
         <v>15</v>
       </c>
@@ -1613,7 +1638,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:305">
+    <row r="10" spans="1:305" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
         <v>22</v>
       </c>
@@ -1623,7 +1648,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:305">
+    <row r="11" spans="1:305" x14ac:dyDescent="0.2">
       <c r="B11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1631,7 +1656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:305" s="21" customFormat="1">
+    <row r="13" spans="1:305" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1954,7 +1979,7 @@
       <c r="KR13" s="22"/>
       <c r="KS13" s="22"/>
     </row>
-    <row r="14" spans="1:305" s="23" customFormat="1">
+    <row r="14" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>1</v>
       </c>
@@ -2273,7 +2298,7 @@
       <c r="KR14" s="20"/>
       <c r="KS14" s="20"/>
     </row>
-    <row r="15" spans="1:305" s="23" customFormat="1">
+    <row r="15" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
         <v>2</v>
       </c>
@@ -2596,7 +2621,7 @@
       <c r="KR15" s="20"/>
       <c r="KS15" s="20"/>
     </row>
-    <row r="16" spans="1:305">
+    <row r="16" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A16" s="20">
         <v>3</v>
       </c>
@@ -2618,7 +2643,7 @@
       </c>
       <c r="H16" s="20"/>
     </row>
-    <row r="17" spans="1:305">
+    <row r="17" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A17" s="20">
         <v>4</v>
       </c>
@@ -2642,7 +2667,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:305">
+    <row r="18" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A18" s="20">
         <v>5</v>
       </c>
@@ -2664,7 +2689,7 @@
       </c>
       <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="1:305">
+    <row r="19" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A19" s="20">
         <v>6</v>
       </c>
@@ -2688,7 +2713,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:305">
+    <row r="20" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A20" s="20">
         <v>7</v>
       </c>
@@ -2710,7 +2735,7 @@
       </c>
       <c r="H20" s="20"/>
     </row>
-    <row r="21" spans="1:305">
+    <row r="21" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A21" s="20">
         <v>8</v>
       </c>
@@ -2734,7 +2759,7 @@
       </c>
       <c r="H21" s="24"/>
     </row>
-    <row r="22" spans="1:305">
+    <row r="22" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A22" s="20">
         <v>9</v>
       </c>
@@ -2756,7 +2781,7 @@
       </c>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="1:305">
+    <row r="23" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A23" s="20">
         <v>10</v>
       </c>
@@ -2778,7 +2803,7 @@
       </c>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:305">
+    <row r="24" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A24" s="20">
         <v>11</v>
       </c>
@@ -2802,7 +2827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:305">
+    <row r="25" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A25" s="20">
         <v>12</v>
       </c>
@@ -2824,7 +2849,7 @@
       </c>
       <c r="H25" s="20"/>
     </row>
-    <row r="26" spans="1:305">
+    <row r="26" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A26" s="20">
         <v>13</v>
       </c>
@@ -2846,7 +2871,7 @@
       </c>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="1:305">
+    <row r="27" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A27" s="20">
         <v>14</v>
       </c>
@@ -2870,7 +2895,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:305">
+    <row r="28" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A28" s="20">
         <v>15</v>
       </c>
@@ -2892,7 +2917,7 @@
       </c>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="1:305" s="23" customFormat="1">
+    <row r="29" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20">
         <v>16</v>
       </c>
@@ -3211,7 +3236,7 @@
       <c r="KR29" s="20"/>
       <c r="KS29" s="20"/>
     </row>
-    <row r="30" spans="1:305" s="23" customFormat="1">
+    <row r="30" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20">
         <v>17</v>
       </c>
@@ -3530,7 +3555,7 @@
       <c r="KR30" s="20"/>
       <c r="KS30" s="20"/>
     </row>
-    <row r="31" spans="1:305">
+    <row r="31" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A31" s="20">
         <v>18</v>
       </c>
@@ -3552,7 +3577,7 @@
       </c>
       <c r="H31" s="20"/>
     </row>
-    <row r="32" spans="1:305" s="23" customFormat="1">
+    <row r="32" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20">
         <v>19</v>
       </c>
@@ -3871,7 +3896,7 @@
       <c r="KR32" s="20"/>
       <c r="KS32" s="20"/>
     </row>
-    <row r="33" spans="1:305">
+    <row r="33" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A33" s="20">
         <v>20</v>
       </c>
@@ -3895,7 +3920,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:305" s="23" customFormat="1">
+    <row r="34" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20">
         <v>21</v>
       </c>
@@ -3912,7 +3937,7 @@
         <v>41886</v>
       </c>
       <c r="F34" s="9">
-        <v>41900</v>
+        <v>41915</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="20"/>
@@ -4214,7 +4239,7 @@
       <c r="KR34" s="20"/>
       <c r="KS34" s="20"/>
     </row>
-    <row r="35" spans="1:305" hidden="1">
+    <row r="35" spans="1:305" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="20">
         <v>22</v>
       </c>
@@ -4226,7 +4251,7 @@
       <c r="G35" s="10"/>
       <c r="H35" s="20"/>
     </row>
-    <row r="36" spans="1:305">
+    <row r="36" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A36" s="20">
         <v>23</v>
       </c>
@@ -4248,7 +4273,7 @@
       </c>
       <c r="H36" s="20"/>
     </row>
-    <row r="37" spans="1:305" s="23" customFormat="1">
+    <row r="37" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="20">
         <v>24</v>
       </c>
@@ -4567,7 +4592,7 @@
       <c r="KR37" s="20"/>
       <c r="KS37" s="20"/>
     </row>
-    <row r="38" spans="1:305" s="23" customFormat="1">
+    <row r="38" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="20">
         <v>25</v>
       </c>
@@ -4886,7 +4911,7 @@
       <c r="KR38" s="20"/>
       <c r="KS38" s="20"/>
     </row>
-    <row r="39" spans="1:305" s="23" customFormat="1">
+    <row r="39" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="20">
         <v>26</v>
       </c>
@@ -5205,7 +5230,7 @@
       <c r="KR39" s="20"/>
       <c r="KS39" s="20"/>
     </row>
-    <row r="40" spans="1:305">
+    <row r="40" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A40" s="20">
         <v>27</v>
       </c>
@@ -5229,7 +5254,7 @@
       </c>
       <c r="H40" s="20"/>
     </row>
-    <row r="41" spans="1:305">
+    <row r="41" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A41" s="20">
         <v>28</v>
       </c>
@@ -5253,7 +5278,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:305">
+    <row r="42" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A42" s="20">
         <v>29</v>
       </c>
@@ -5272,10 +5297,12 @@
       <c r="F42" s="9">
         <v>41905</v>
       </c>
-      <c r="G42" s="13"/>
+      <c r="G42" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="H42" s="20"/>
     </row>
-    <row r="43" spans="1:305" s="23" customFormat="1">
+    <row r="43" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="20">
         <v>30</v>
       </c>
@@ -5294,7 +5321,9 @@
       <c r="F43" s="9">
         <v>41905</v>
       </c>
-      <c r="G43" s="13"/>
+      <c r="G43" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
@@ -5594,7 +5623,7 @@
       <c r="KR43" s="20"/>
       <c r="KS43" s="20"/>
     </row>
-    <row r="44" spans="1:305">
+    <row r="44" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A44" s="20">
         <v>31</v>
       </c>
@@ -5613,10 +5642,12 @@
       <c r="F44" s="9">
         <v>41905</v>
       </c>
-      <c r="G44" s="13"/>
+      <c r="G44" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="H44" s="20"/>
     </row>
-    <row r="45" spans="1:305" s="23" customFormat="1">
+    <row r="45" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20">
         <v>32</v>
       </c>
@@ -5635,7 +5666,9 @@
       <c r="F45" s="9">
         <v>41905</v>
       </c>
-      <c r="G45" s="13"/>
+      <c r="G45" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
@@ -5935,7 +5968,7 @@
       <c r="KR45" s="20"/>
       <c r="KS45" s="20"/>
     </row>
-    <row r="46" spans="1:305">
+    <row r="46" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A46" s="20">
         <v>33</v>
       </c>
@@ -5959,7 +5992,7 @@
       </c>
       <c r="H46" s="20"/>
     </row>
-    <row r="47" spans="1:305" s="23" customFormat="1">
+    <row r="47" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20">
         <v>34</v>
       </c>
@@ -5978,10 +6011,10 @@
       <c r="F47" s="9">
         <v>41907</v>
       </c>
-      <c r="G47" s="10"/>
-      <c r="H47" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="G47" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H47" s="20"/>
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
@@ -6280,7 +6313,7 @@
       <c r="KR47" s="20"/>
       <c r="KS47" s="20"/>
     </row>
-    <row r="48" spans="1:305">
+    <row r="48" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A48" s="20">
         <v>35</v>
       </c>
@@ -6299,12 +6332,14 @@
       <c r="F48" s="9">
         <v>41907</v>
       </c>
-      <c r="G48" s="10"/>
+      <c r="G48" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="H48" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:305" s="23" customFormat="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20">
         <v>36</v>
       </c>
@@ -6323,7 +6358,9 @@
       <c r="F49" s="9">
         <v>41900</v>
       </c>
-      <c r="G49" s="13"/>
+      <c r="G49" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="H49" s="20"/>
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
@@ -6623,7 +6660,7 @@
       <c r="KR49" s="20"/>
       <c r="KS49" s="20"/>
     </row>
-    <row r="50" spans="1:305">
+    <row r="50" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A50" s="20">
         <v>37</v>
       </c>
@@ -6647,12 +6684,12 @@
       </c>
       <c r="H50" s="20"/>
     </row>
-    <row r="51" spans="1:305" s="23" customFormat="1">
+    <row r="51" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="20">
         <v>38</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" s="20" t="s">
         <v>16</v>
@@ -6664,9 +6701,7 @@
         <v>41928</v>
       </c>
       <c r="F51" s="9"/>
-      <c r="G51" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="G51" s="10"/>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
@@ -6966,26 +7001,42 @@
       <c r="KR51" s="20"/>
       <c r="KS51" s="20"/>
     </row>
-    <row r="52" spans="1:305">
+    <row r="52" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A52" s="20">
         <v>39</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
+      <c r="B52" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="9">
+        <v>41912</v>
+      </c>
+      <c r="E52" s="9">
+        <v>41921</v>
+      </c>
       <c r="F52" s="9"/>
       <c r="G52" s="10"/>
       <c r="H52" s="20"/>
     </row>
-    <row r="53" spans="1:305" s="23" customFormat="1">
+    <row r="53" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20">
         <v>40</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
+      <c r="B53" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="9">
+        <v>41912</v>
+      </c>
+      <c r="E53" s="9">
+        <v>41912</v>
+      </c>
       <c r="F53" s="9"/>
       <c r="G53" s="10"/>
       <c r="H53" s="20"/>
@@ -7287,26 +7338,42 @@
       <c r="KR53" s="20"/>
       <c r="KS53" s="20"/>
     </row>
-    <row r="54" spans="1:305">
+    <row r="54" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A54" s="20">
         <v>41</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
+      <c r="B54" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="9">
+        <v>41912</v>
+      </c>
+      <c r="E54" s="9">
+        <v>41926</v>
+      </c>
       <c r="F54" s="9"/>
       <c r="G54" s="10"/>
       <c r="H54" s="20"/>
     </row>
-    <row r="55" spans="1:305" s="23" customFormat="1">
+    <row r="55" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="20">
         <v>42</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
+      <c r="B55" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="9">
+        <v>41907</v>
+      </c>
+      <c r="E55" s="9">
+        <v>41914</v>
+      </c>
       <c r="F55" s="9"/>
       <c r="G55" s="10"/>
       <c r="H55" s="20"/>
@@ -7608,7 +7675,7 @@
       <c r="KR55" s="20"/>
       <c r="KS55" s="20"/>
     </row>
-    <row r="56" spans="1:305">
+    <row r="56" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A56" s="20">
         <v>43</v>
       </c>
@@ -7620,7 +7687,7 @@
       <c r="G56" s="13"/>
       <c r="H56" s="20"/>
     </row>
-    <row r="57" spans="1:305">
+    <row r="57" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A57" s="20">
         <v>44</v>
       </c>
@@ -7632,7 +7699,7 @@
       <c r="G57" s="10"/>
       <c r="H57" s="20"/>
     </row>
-    <row r="58" spans="1:305">
+    <row r="58" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A58" s="20">
         <v>45</v>
       </c>
@@ -7644,7 +7711,7 @@
       <c r="G58" s="13"/>
       <c r="H58" s="20"/>
     </row>
-    <row r="59" spans="1:305">
+    <row r="59" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A59" s="20">
         <v>46</v>
       </c>
@@ -7656,7 +7723,7 @@
       <c r="G59" s="10"/>
       <c r="H59" s="20"/>
     </row>
-    <row r="60" spans="1:305">
+    <row r="60" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A60" s="20">
         <v>47</v>
       </c>
@@ -7668,7 +7735,7 @@
       <c r="G60" s="13"/>
       <c r="H60" s="20"/>
     </row>
-    <row r="61" spans="1:305">
+    <row r="61" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A61" s="20">
         <v>48</v>
       </c>
@@ -7680,7 +7747,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="20"/>
     </row>
-    <row r="62" spans="1:305">
+    <row r="62" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A62" s="20">
         <v>49</v>
       </c>
@@ -7692,7 +7759,7 @@
       <c r="G62" s="10"/>
       <c r="H62" s="20"/>
     </row>
-    <row r="63" spans="1:305">
+    <row r="63" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A63" s="20">
         <v>50</v>
       </c>
@@ -7704,7 +7771,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="20"/>
     </row>
-    <row r="64" spans="1:305">
+    <row r="64" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A64" s="20">
         <v>51</v>
       </c>
@@ -7716,7 +7783,7 @@
       <c r="G64" s="10"/>
       <c r="H64" s="20"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="20">
         <v>52</v>
       </c>
@@ -7728,7 +7795,7 @@
       <c r="G65" s="13"/>
       <c r="H65" s="20"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="20">
         <v>53</v>
       </c>
@@ -7740,7 +7807,7 @@
       <c r="G66" s="13"/>
       <c r="H66" s="20"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="20">
         <v>54</v>
       </c>
@@ -7752,7 +7819,7 @@
       <c r="G67" s="13"/>
       <c r="H67" s="20"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="20">
         <v>55</v>
       </c>
@@ -7764,7 +7831,7 @@
       <c r="G68" s="13"/>
       <c r="H68" s="20"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="20">
         <v>56</v>
       </c>
@@ -7776,7 +7843,7 @@
       <c r="G69" s="13"/>
       <c r="H69" s="20"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="20">
         <v>57</v>
       </c>
@@ -7788,7 +7855,7 @@
       <c r="G70" s="13"/>
       <c r="H70" s="20"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="20">
         <v>58</v>
       </c>
@@ -7800,7 +7867,7 @@
       <c r="G71" s="10"/>
       <c r="H71" s="20"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="20">
         <v>59</v>
       </c>
@@ -7812,7 +7879,7 @@
       <c r="G72" s="10"/>
       <c r="H72" s="20"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="20">
         <v>60</v>
       </c>
@@ -7824,7 +7891,7 @@
       <c r="G73" s="10"/>
       <c r="H73" s="20"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="20">
         <v>61</v>
       </c>
@@ -7836,7 +7903,7 @@
       <c r="G74" s="10"/>
       <c r="H74" s="20"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="20">
         <v>62</v>
       </c>
@@ -7848,7 +7915,7 @@
       <c r="G75" s="10"/>
       <c r="H75" s="20"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="20">
         <v>63</v>
       </c>
@@ -7860,7 +7927,7 @@
       <c r="G76" s="10"/>
       <c r="H76" s="20"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="20">
         <v>64</v>
       </c>
@@ -7872,7 +7939,7 @@
       <c r="G77" s="10"/>
       <c r="H77" s="20"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="20">
         <v>65</v>
       </c>
@@ -7884,7 +7951,7 @@
       <c r="G78" s="10"/>
       <c r="H78" s="20"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="20">
         <v>66</v>
       </c>
@@ -7896,7 +7963,7 @@
       <c r="G79" s="10"/>
       <c r="H79" s="20"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="20">
         <v>67</v>
       </c>
@@ -7908,7 +7975,7 @@
       <c r="G80" s="10"/>
       <c r="H80" s="20"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="20">
         <v>68</v>
       </c>
@@ -7920,7 +7987,7 @@
       <c r="G81" s="10"/>
       <c r="H81" s="20"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="20">
         <v>69</v>
       </c>
@@ -7932,7 +7999,7 @@
       <c r="G82" s="10"/>
       <c r="H82" s="20"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="20">
         <v>70</v>
       </c>
@@ -7944,7 +8011,7 @@
       <c r="G83" s="10"/>
       <c r="H83" s="20"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="20">
         <v>71</v>
       </c>
@@ -7956,7 +8023,7 @@
       <c r="G84" s="10"/>
       <c r="H84" s="20"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="20">
         <v>72</v>
       </c>
@@ -7968,7 +8035,7 @@
       <c r="G85" s="10"/>
       <c r="H85" s="20"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="20"/>
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>

--- a/Logistics/AIL_75_JPB_Fall.xlsx
+++ b/Logistics/AIL_75_JPB_Fall.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\SeniorDesign\Logistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chance\Documents\GitHub\SeniorDesign\Logistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="89">
   <si>
     <t>Team Members:</t>
   </si>
@@ -1260,8 +1260,8 @@
   </sheetPr>
   <dimension ref="A1:KS86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6679,8 +6679,8 @@
       <c r="F50" s="9">
         <v>41905</v>
       </c>
-      <c r="G50" s="13">
-        <v>0.25</v>
+      <c r="G50" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="H50" s="20"/>
     </row>
@@ -7018,7 +7018,9 @@
         <v>41921</v>
       </c>
       <c r="F52" s="9"/>
-      <c r="G52" s="10"/>
+      <c r="G52" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="H52" s="20"/>
     </row>
     <row r="53" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -7038,7 +7040,9 @@
         <v>41912</v>
       </c>
       <c r="F53" s="9"/>
-      <c r="G53" s="10"/>
+      <c r="G53" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
@@ -7374,8 +7378,12 @@
       <c r="E55" s="9">
         <v>41914</v>
       </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="10"/>
+      <c r="F55" s="9">
+        <v>41928</v>
+      </c>
+      <c r="G55" s="13">
+        <v>0.4</v>
+      </c>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>

--- a/Logistics/AIL_75_JPB_Fall.xlsx
+++ b/Logistics/AIL_75_JPB_Fall.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chance\Documents\GitHub\SeniorDesign\Logistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\SeniorDesign\Logistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Activities " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="94">
   <si>
     <t>Team Members:</t>
   </si>
@@ -144,9 +144,6 @@
     <t>"Casey is bad at script writing" - Casey</t>
   </si>
   <si>
-    <t>On Hold</t>
-  </si>
-  <si>
     <t>Waiting to hear from ECE parts order</t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t>Add Website Content</t>
   </si>
   <si>
-    <t>Kickstarter Content</t>
-  </si>
-  <si>
     <t>Test Prelim Linear Motion Sys</t>
   </si>
   <si>
@@ -282,10 +276,31 @@
     <t>JPB, NAT</t>
   </si>
   <si>
-    <t>Coupler</t>
-  </si>
-  <si>
     <t>NAT</t>
+  </si>
+  <si>
+    <t>Coupler Design</t>
+  </si>
+  <si>
+    <t>Rename Files</t>
+  </si>
+  <si>
+    <t>Normalize Encodings to UTF-8</t>
+  </si>
+  <si>
+    <t>Rename Classes</t>
+  </si>
+  <si>
+    <t>Fix White Space and Formating</t>
+  </si>
+  <si>
+    <t>Change Icons to System Default</t>
+  </si>
+  <si>
+    <t>Implement Tab Interface</t>
+  </si>
+  <si>
+    <t>Indiegogo Content</t>
   </si>
 </sst>
 </file>
@@ -730,7 +745,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -786,6 +801,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="Accent1" xfId="1" builtinId="29" customBuiltin="1"/>
@@ -1260,8 +1278,8 @@
   </sheetPr>
   <dimension ref="A1:KS86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1984,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>15</v>
@@ -2303,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>17</v>
@@ -2661,10 +2679,10 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:305" x14ac:dyDescent="0.2">
@@ -2675,7 +2693,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="9">
         <v>41877</v>
@@ -2707,10 +2725,10 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:305" x14ac:dyDescent="0.2">
@@ -2821,10 +2839,10 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="20" t="s">
         <v>43</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:305" x14ac:dyDescent="0.2">
@@ -2889,10 +2907,10 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:305" x14ac:dyDescent="0.2">
@@ -2922,7 +2940,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>15</v>
@@ -3241,7 +3259,7 @@
         <v>17</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>17</v>
@@ -3560,10 +3578,10 @@
         <v>18</v>
       </c>
       <c r="B31" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>64</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>65</v>
       </c>
       <c r="D31" s="9">
         <v>41884</v>
@@ -3582,10 +3600,10 @@
         <v>19</v>
       </c>
       <c r="B32" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>46</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>47</v>
       </c>
       <c r="D32" s="9">
         <v>41884</v>
@@ -3901,7 +3919,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>15</v>
@@ -3914,10 +3932,10 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="20" t="s">
         <v>52</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -3925,7 +3943,7 @@
         <v>21</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>15</v>
@@ -3939,7 +3957,9 @@
       <c r="F34" s="9">
         <v>41915</v>
       </c>
-      <c r="G34" s="11"/>
+      <c r="G34" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
@@ -4256,7 +4276,7 @@
         <v>23</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>15</v>
@@ -4278,7 +4298,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>15</v>
@@ -4597,7 +4617,7 @@
         <v>25</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>16</v>
@@ -4916,10 +4936,10 @@
         <v>26</v>
       </c>
       <c r="B39" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="20" t="s">
         <v>50</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>51</v>
       </c>
       <c r="D39" s="9">
         <v>41886</v>
@@ -5235,7 +5255,7 @@
         <v>27</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>17</v>
@@ -5249,8 +5269,8 @@
       <c r="F40" s="9">
         <v>41900</v>
       </c>
-      <c r="G40" s="13">
-        <v>0.5</v>
+      <c r="G40" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="H40" s="20"/>
     </row>
@@ -5259,7 +5279,7 @@
         <v>28</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>15</v>
@@ -5275,7 +5295,7 @@
         <v>39</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:305" x14ac:dyDescent="0.2">
@@ -5283,7 +5303,7 @@
         <v>29</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>17</v>
@@ -5307,7 +5327,7 @@
         <v>30</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>8</v>
@@ -5628,10 +5648,10 @@
         <v>31</v>
       </c>
       <c r="B44" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="20" t="s">
         <v>69</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>70</v>
       </c>
       <c r="D44" s="9">
         <v>41891</v>
@@ -5652,10 +5672,10 @@
         <v>32</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D45" s="9">
         <v>41891</v>
@@ -5973,7 +5993,7 @@
         <v>33</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>8</v>
@@ -5997,7 +6017,7 @@
         <v>34</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>16</v>
@@ -6318,10 +6338,10 @@
         <v>35</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D48" s="9">
         <v>41893</v>
@@ -6336,7 +6356,7 @@
         <v>39</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -6344,7 +6364,7 @@
         <v>36</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>17</v>
@@ -6665,10 +6685,10 @@
         <v>37</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D50" s="9">
         <v>41893</v>
@@ -6689,7 +6709,7 @@
         <v>38</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C51" s="20" t="s">
         <v>16</v>
@@ -7003,41 +7023,43 @@
     </row>
     <row r="52" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A52" s="20">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D52" s="9">
-        <v>41912</v>
+        <v>41907</v>
       </c>
       <c r="E52" s="9">
-        <v>41921</v>
-      </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="10" t="s">
-        <v>39</v>
+        <v>41914</v>
+      </c>
+      <c r="F52" s="9">
+        <v>41928</v>
+      </c>
+      <c r="G52" s="13">
+        <v>0.7</v>
       </c>
       <c r="H52" s="20"/>
     </row>
     <row r="53" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D53" s="9">
         <v>41912</v>
       </c>
       <c r="E53" s="9">
-        <v>41912</v>
+        <v>41921</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="10" t="s">
@@ -7344,46 +7366,44 @@
     </row>
     <row r="54" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A54" s="20">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D54" s="9">
         <v>41912</v>
       </c>
       <c r="E54" s="9">
-        <v>41926</v>
+        <v>41912</v>
       </c>
       <c r="F54" s="9"/>
-      <c r="G54" s="10"/>
+      <c r="G54" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="H54" s="20"/>
     </row>
     <row r="55" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="20">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D55" s="9">
-        <v>41907</v>
+        <v>41912</v>
       </c>
       <c r="E55" s="9">
-        <v>41914</v>
-      </c>
-      <c r="F55" s="9">
-        <v>41928</v>
-      </c>
-      <c r="G55" s="13">
-        <v>0.4</v>
-      </c>
+        <v>41926</v>
+      </c>
+      <c r="F55" s="9"/>
+      <c r="G55" s="10"/>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
@@ -7687,34 +7707,62 @@
       <c r="A56" s="20">
         <v>43</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
+      <c r="B56" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="9">
+        <v>41914</v>
+      </c>
+      <c r="E56" s="9">
+        <v>41919</v>
+      </c>
       <c r="F56" s="9"/>
-      <c r="G56" s="13"/>
+      <c r="G56" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="H56" s="20"/>
     </row>
     <row r="57" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A57" s="20">
         <v>44</v>
       </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
+      <c r="B57" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="9">
+        <v>41914</v>
+      </c>
+      <c r="E57" s="9">
+        <v>41919</v>
+      </c>
       <c r="F57" s="9"/>
-      <c r="G57" s="10"/>
+      <c r="G57" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="H57" s="20"/>
     </row>
     <row r="58" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A58" s="20">
         <v>45</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
+      <c r="B58" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="9">
+        <v>41921</v>
+      </c>
+      <c r="E58" s="9">
+        <v>41926</v>
+      </c>
       <c r="F58" s="9"/>
       <c r="G58" s="13"/>
       <c r="H58" s="20"/>
@@ -7723,10 +7771,18 @@
       <c r="A59" s="20">
         <v>46</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
+      <c r="B59" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="9">
+        <v>41921</v>
+      </c>
+      <c r="E59" s="9">
+        <v>41926</v>
+      </c>
       <c r="F59" s="9"/>
       <c r="G59" s="10"/>
       <c r="H59" s="20"/>
@@ -7735,10 +7791,18 @@
       <c r="A60" s="20">
         <v>47</v>
       </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
+      <c r="B60" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="9">
+        <v>41921</v>
+      </c>
+      <c r="E60" s="9">
+        <v>41926</v>
+      </c>
       <c r="F60" s="9"/>
       <c r="G60" s="13"/>
       <c r="H60" s="20"/>
@@ -7747,10 +7811,18 @@
       <c r="A61" s="20">
         <v>48</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
+      <c r="B61" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="9">
+        <v>41921</v>
+      </c>
+      <c r="E61" s="9">
+        <v>41926</v>
+      </c>
       <c r="F61" s="9"/>
       <c r="G61" s="13"/>
       <c r="H61" s="20"/>

--- a/Logistics/AIL_75_JPB_Fall.xlsx
+++ b/Logistics/AIL_75_JPB_Fall.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="97">
   <si>
     <t>Team Members:</t>
   </si>
@@ -301,6 +301,15 @@
   </si>
   <si>
     <t>Indiegogo Content</t>
+  </si>
+  <si>
+    <t>Plates</t>
+  </si>
+  <si>
+    <t>Linear Motion Rails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GD&amp;T Mechanical Components </t>
   </si>
 </sst>
 </file>
@@ -1278,8 +1287,8 @@
   </sheetPr>
   <dimension ref="A1:KS86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7831,10 +7840,18 @@
       <c r="A62" s="20">
         <v>49</v>
       </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
+      <c r="B62" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="9">
+        <v>41928</v>
+      </c>
+      <c r="E62" s="9">
+        <v>41935</v>
+      </c>
       <c r="F62" s="9"/>
       <c r="G62" s="10"/>
       <c r="H62" s="20"/>
@@ -7843,10 +7860,18 @@
       <c r="A63" s="20">
         <v>50</v>
       </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
+      <c r="B63" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="9">
+        <v>41928</v>
+      </c>
+      <c r="E63" s="9">
+        <v>41935</v>
+      </c>
       <c r="F63" s="9"/>
       <c r="G63" s="13"/>
       <c r="H63" s="20"/>
@@ -7855,10 +7880,18 @@
       <c r="A64" s="20">
         <v>51</v>
       </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
+      <c r="B64" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="9">
+        <v>41928</v>
+      </c>
+      <c r="E64" s="9">
+        <v>41935</v>
+      </c>
       <c r="F64" s="9"/>
       <c r="G64" s="10"/>
       <c r="H64" s="20"/>

--- a/Logistics/AIL_75_JPB_Fall.xlsx
+++ b/Logistics/AIL_75_JPB_Fall.xlsx
@@ -1287,8 +1287,8 @@
   </sheetPr>
   <dimension ref="A1:KS86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4268,16 +4268,26 @@
       <c r="KR34" s="20"/>
       <c r="KS34" s="20"/>
     </row>
-    <row r="35" spans="1:305" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A35" s="20">
         <v>22</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+      <c r="B35" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="9">
+        <v>41886</v>
+      </c>
+      <c r="E35" s="9">
+        <v>41891</v>
+      </c>
       <c r="F35" s="9"/>
-      <c r="G35" s="10"/>
+      <c r="G35" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="H35" s="20"/>
     </row>
     <row r="36" spans="1:305" x14ac:dyDescent="0.2">
@@ -4285,7 +4295,7 @@
         <v>23</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>15</v>
@@ -4307,10 +4317,10 @@
         <v>24</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D37" s="9">
         <v>41886</v>
@@ -4319,7 +4329,7 @@
         <v>41891</v>
       </c>
       <c r="F37" s="9"/>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H37" s="20"/>
@@ -4626,19 +4636,19 @@
         <v>25</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D38" s="9">
         <v>41886</v>
       </c>
       <c r="E38" s="9">
-        <v>41891</v>
+        <v>41893</v>
       </c>
       <c r="F38" s="9"/>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="13" t="s">
         <v>39</v>
       </c>
       <c r="H38" s="20"/>
@@ -4945,18 +4955,20 @@
         <v>26</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D39" s="9">
-        <v>41886</v>
+        <v>41891</v>
       </c>
       <c r="E39" s="9">
         <v>41893</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="9">
+        <v>41900</v>
+      </c>
       <c r="G39" s="13" t="s">
         <v>39</v>
       </c>
@@ -5264,10 +5276,10 @@
         <v>27</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D40" s="9">
         <v>41891</v>
@@ -5275,23 +5287,23 @@
       <c r="E40" s="9">
         <v>41893</v>
       </c>
-      <c r="F40" s="9">
-        <v>41900</v>
-      </c>
+      <c r="F40" s="9"/>
       <c r="G40" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H40" s="20"/>
+      <c r="H40" s="20" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="41" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A41" s="20">
         <v>28</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D41" s="9">
         <v>41891</v>
@@ -5299,23 +5311,23 @@
       <c r="E41" s="9">
         <v>41893</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="9">
+        <v>41905</v>
+      </c>
       <c r="G41" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H41" s="20" t="s">
-        <v>76</v>
-      </c>
+      <c r="H41" s="20"/>
     </row>
     <row r="42" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A42" s="20">
         <v>29</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D42" s="9">
         <v>41891</v>
@@ -5336,10 +5348,10 @@
         <v>30</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="D43" s="9">
         <v>41891</v>
@@ -5657,16 +5669,16 @@
         <v>31</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D44" s="9">
         <v>41891</v>
       </c>
       <c r="E44" s="9">
-        <v>41893</v>
+        <v>41891</v>
       </c>
       <c r="F44" s="9">
         <v>41905</v>
@@ -5681,10 +5693,10 @@
         <v>32</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="D45" s="9">
         <v>41891</v>
@@ -5693,9 +5705,9 @@
         <v>41891</v>
       </c>
       <c r="F45" s="9">
-        <v>41905</v>
-      </c>
-      <c r="G45" s="13" t="s">
+        <v>41900</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H45" s="20"/>
@@ -6002,19 +6014,19 @@
         <v>33</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D46" s="9">
         <v>41891</v>
       </c>
       <c r="E46" s="9">
-        <v>41891</v>
+        <v>41900</v>
       </c>
       <c r="F46" s="9">
-        <v>41900</v>
+        <v>41907</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>39</v>
@@ -6026,13 +6038,13 @@
         <v>34</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D47" s="9">
-        <v>41891</v>
+        <v>41893</v>
       </c>
       <c r="E47" s="9">
         <v>41900</v>
@@ -6043,7 +6055,9 @@
       <c r="G47" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H47" s="20"/>
+      <c r="H47" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
@@ -6347,36 +6361,34 @@
         <v>35</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D48" s="9">
         <v>41893</v>
       </c>
       <c r="E48" s="9">
+        <v>41893</v>
+      </c>
+      <c r="F48" s="9">
         <v>41900</v>
       </c>
-      <c r="F48" s="9">
-        <v>41907</v>
-      </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H48" s="20" t="s">
-        <v>77</v>
-      </c>
+      <c r="H48" s="20"/>
     </row>
     <row r="49" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20">
         <v>36</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D49" s="9">
         <v>41893</v>
@@ -6385,7 +6397,7 @@
         <v>41893</v>
       </c>
       <c r="F49" s="9">
-        <v>41900</v>
+        <v>41905</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>39</v>
@@ -6694,23 +6706,19 @@
         <v>37</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D50" s="9">
-        <v>41893</v>
+        <v>41907</v>
       </c>
       <c r="E50" s="9">
-        <v>41893</v>
-      </c>
-      <c r="F50" s="9">
-        <v>41905</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>39</v>
-      </c>
+        <v>41928</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="10"/>
       <c r="H50" s="20"/>
     </row>
     <row r="51" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -6718,19 +6726,23 @@
         <v>38</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="D51" s="9">
         <v>41907</v>
       </c>
       <c r="E51" s="9">
+        <v>41914</v>
+      </c>
+      <c r="F51" s="9">
         <v>41928</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="10"/>
+      <c r="G51" s="13">
+        <v>0.7</v>
+      </c>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
@@ -7035,22 +7047,20 @@
         <v>42</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D52" s="9">
-        <v>41907</v>
+        <v>41912</v>
       </c>
       <c r="E52" s="9">
-        <v>41914</v>
-      </c>
-      <c r="F52" s="9">
-        <v>41928</v>
-      </c>
-      <c r="G52" s="13">
-        <v>0.7</v>
+        <v>41921</v>
+      </c>
+      <c r="F52" s="9"/>
+      <c r="G52" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="H52" s="20"/>
     </row>
@@ -7059,16 +7069,16 @@
         <v>39</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D53" s="9">
         <v>41912</v>
       </c>
       <c r="E53" s="9">
-        <v>41921</v>
+        <v>41912</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="10" t="s">
@@ -7378,21 +7388,19 @@
         <v>40</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D54" s="9">
         <v>41912</v>
       </c>
       <c r="E54" s="9">
-        <v>41912</v>
+        <v>41926</v>
       </c>
       <c r="F54" s="9"/>
-      <c r="G54" s="10" t="s">
-        <v>39</v>
-      </c>
+      <c r="G54" s="10"/>
       <c r="H54" s="20"/>
     </row>
     <row r="55" spans="1:305" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -7400,19 +7408,21 @@
         <v>41</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="D55" s="9">
-        <v>41912</v>
+        <v>41914</v>
       </c>
       <c r="E55" s="9">
-        <v>41926</v>
+        <v>41919</v>
       </c>
       <c r="F55" s="9"/>
-      <c r="G55" s="10"/>
+      <c r="G55" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
@@ -7717,7 +7727,7 @@
         <v>43</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>15</v>
@@ -7729,7 +7739,7 @@
         <v>41919</v>
       </c>
       <c r="F56" s="9"/>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H56" s="20"/>
@@ -7739,21 +7749,19 @@
         <v>44</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="9">
-        <v>41914</v>
+        <v>41921</v>
       </c>
       <c r="E57" s="9">
-        <v>41919</v>
+        <v>41926</v>
       </c>
       <c r="F57" s="9"/>
-      <c r="G57" s="10" t="s">
-        <v>39</v>
-      </c>
+      <c r="G57" s="13"/>
       <c r="H57" s="20"/>
     </row>
     <row r="58" spans="1:305" x14ac:dyDescent="0.2">
@@ -7761,7 +7769,7 @@
         <v>45</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>15</v>
@@ -7773,7 +7781,7 @@
         <v>41926</v>
       </c>
       <c r="F58" s="9"/>
-      <c r="G58" s="13"/>
+      <c r="G58" s="10"/>
       <c r="H58" s="20"/>
     </row>
     <row r="59" spans="1:305" x14ac:dyDescent="0.2">
@@ -7781,7 +7789,7 @@
         <v>46</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>15</v>
@@ -7793,7 +7801,7 @@
         <v>41926</v>
       </c>
       <c r="F59" s="9"/>
-      <c r="G59" s="10"/>
+      <c r="G59" s="13"/>
       <c r="H59" s="20"/>
     </row>
     <row r="60" spans="1:305" x14ac:dyDescent="0.2">
@@ -7801,7 +7809,7 @@
         <v>47</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C60" s="20" t="s">
         <v>15</v>
@@ -7821,19 +7829,19 @@
         <v>48</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="D61" s="9">
-        <v>41921</v>
+        <v>41928</v>
       </c>
       <c r="E61" s="9">
-        <v>41926</v>
+        <v>41935</v>
       </c>
       <c r="F61" s="9"/>
-      <c r="G61" s="13"/>
+      <c r="G61" s="10"/>
       <c r="H61" s="20"/>
     </row>
     <row r="62" spans="1:305" x14ac:dyDescent="0.2">
@@ -7841,7 +7849,7 @@
         <v>49</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>84</v>
@@ -7853,7 +7861,7 @@
         <v>41935</v>
       </c>
       <c r="F62" s="9"/>
-      <c r="G62" s="10"/>
+      <c r="G62" s="13"/>
       <c r="H62" s="20"/>
     </row>
     <row r="63" spans="1:305" x14ac:dyDescent="0.2">
@@ -7861,7 +7869,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>84</v>
@@ -7873,25 +7881,17 @@
         <v>41935</v>
       </c>
       <c r="F63" s="9"/>
-      <c r="G63" s="13"/>
+      <c r="G63" s="10"/>
       <c r="H63" s="20"/>
     </row>
     <row r="64" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A64" s="20">
         <v>51</v>
       </c>
-      <c r="B64" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" s="9">
-        <v>41928</v>
-      </c>
-      <c r="E64" s="9">
-        <v>41935</v>
-      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="10"/>
       <c r="H64" s="20"/>

--- a/Logistics/AIL_75_JPB_Fall.xlsx
+++ b/Logistics/AIL_75_JPB_Fall.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\SeniorDesign\Logistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chance\Documents\GitHub\SeniorDesign\Logistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="101">
   <si>
     <t>Team Members:</t>
   </si>
@@ -310,6 +310,18 @@
   </si>
   <si>
     <t xml:space="preserve">GD&amp;T Mechanical Components </t>
+  </si>
+  <si>
+    <t>Change of framework</t>
+  </si>
+  <si>
+    <t>Figure out the Frame work</t>
+  </si>
+  <si>
+    <t>Map Out Design Report</t>
+  </si>
+  <si>
+    <t>NAL, CWS</t>
   </si>
 </sst>
 </file>
@@ -1287,8 +1299,8 @@
   </sheetPr>
   <dimension ref="A1:KS86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6709,7 +6721,7 @@
         <v>78</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="D50" s="9">
         <v>41907</v>
@@ -6717,7 +6729,9 @@
       <c r="E50" s="9">
         <v>41928</v>
       </c>
-      <c r="F50" s="9"/>
+      <c r="F50" s="9">
+        <v>41973</v>
+      </c>
       <c r="G50" s="10"/>
       <c r="H50" s="20"/>
     </row>
@@ -6741,7 +6755,7 @@
         <v>41928</v>
       </c>
       <c r="G51" s="13">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
@@ -7761,8 +7775,12 @@
         <v>41926</v>
       </c>
       <c r="F57" s="9"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="20"/>
+      <c r="G57" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" s="20" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="58" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A58" s="20">
@@ -7781,8 +7799,12 @@
         <v>41926</v>
       </c>
       <c r="F58" s="9"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="20"/>
+      <c r="G58" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" s="20" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="59" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A59" s="20">
@@ -7801,8 +7823,12 @@
         <v>41926</v>
       </c>
       <c r="F59" s="9"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="20"/>
+      <c r="G59" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" s="20" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="60" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A60" s="20">
@@ -7821,8 +7847,12 @@
         <v>41926</v>
       </c>
       <c r="F60" s="9"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="20"/>
+      <c r="G60" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60" s="20" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="61" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A61" s="20">
@@ -7840,8 +7870,12 @@
       <c r="E61" s="9">
         <v>41935</v>
       </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="10"/>
+      <c r="F61" s="9">
+        <v>41943</v>
+      </c>
+      <c r="G61" s="13">
+        <v>0.3</v>
+      </c>
       <c r="H61" s="20"/>
     </row>
     <row r="62" spans="1:305" x14ac:dyDescent="0.2">
@@ -7860,8 +7894,12 @@
       <c r="E62" s="9">
         <v>41935</v>
       </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="13"/>
+      <c r="F62" s="9">
+        <v>41950</v>
+      </c>
+      <c r="G62" s="13">
+        <v>0.1</v>
+      </c>
       <c r="H62" s="20"/>
     </row>
     <row r="63" spans="1:305" x14ac:dyDescent="0.2">
@@ -7881,31 +7919,53 @@
         <v>41935</v>
       </c>
       <c r="F63" s="9"/>
-      <c r="G63" s="10"/>
+      <c r="G63" s="13">
+        <v>0.3</v>
+      </c>
       <c r="H63" s="20"/>
     </row>
     <row r="64" spans="1:305" x14ac:dyDescent="0.2">
       <c r="A64" s="20">
         <v>51</v>
       </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
+      <c r="B64" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="9">
+        <v>41933</v>
+      </c>
+      <c r="E64" s="9">
+        <v>41942</v>
+      </c>
       <c r="F64" s="9"/>
-      <c r="G64" s="10"/>
+      <c r="G64" s="13">
+        <v>0.2</v>
+      </c>
       <c r="H64" s="20"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="20">
         <v>52</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
+      <c r="B65" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="9">
+        <v>41933</v>
+      </c>
+      <c r="E65" s="9">
+        <v>41918</v>
+      </c>
       <c r="F65" s="9"/>
-      <c r="G65" s="13"/>
+      <c r="G65" s="13">
+        <v>0.15</v>
+      </c>
       <c r="H65" s="20"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
